--- a/sys_SCI-FI.xlsx
+++ b/sys_SCI-FI.xlsx
@@ -295,25 +295,25 @@
     <t>Sci-Fi</t>
   </si>
   <si>
-    <t>j.c</t>
-  </si>
-  <si>
-    <t>tms</t>
-  </si>
-  <si>
-    <t>a-1</t>
-  </si>
-  <si>
-    <t>tri</t>
-  </si>
-  <si>
-    <t>wit</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>pro</t>
+    <t>j.c.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-1 </t>
+  </si>
+  <si>
+    <t>trig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wit </t>
+  </si>
+  <si>
+    <t>madh</t>
+  </si>
+  <si>
+    <t>prod</t>
   </si>
 </sst>
 </file>

--- a/sys_SCI-FI.xlsx
+++ b/sys_SCI-FI.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>Cube</t>
+    <t>role code</t>
   </si>
   <si>
     <t>kisaragialice</t>

--- a/sys_SCI-FI.xlsx
+++ b/sys_SCI-FI.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>role code</t>
+    <t>Cube</t>
   </si>
   <si>
     <t>kisaragialice</t>
@@ -295,25 +295,25 @@
     <t>Sci-Fi</t>
   </si>
   <si>
-    <t>j.c.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tms </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a-1 </t>
-  </si>
-  <si>
-    <t>trig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wit </t>
-  </si>
-  <si>
-    <t>madh</t>
-  </si>
-  <si>
-    <t>prod</t>
+    <t>j.c</t>
+  </si>
+  <si>
+    <t>tms</t>
+  </si>
+  <si>
+    <t>a-1</t>
+  </si>
+  <si>
+    <t>tri</t>
+  </si>
+  <si>
+    <t>wit</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>pro</t>
   </si>
 </sst>
 </file>

--- a/sys_SCI-FI.xlsx
+++ b/sys_SCI-FI.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>Cube</t>
+    <t>role code</t>
   </si>
   <si>
     <t>kisaragialice</t>
@@ -295,25 +295,25 @@
     <t>Sci-Fi</t>
   </si>
   <si>
-    <t>j.c</t>
-  </si>
-  <si>
-    <t>tms</t>
-  </si>
-  <si>
-    <t>a-1</t>
-  </si>
-  <si>
-    <t>tri</t>
-  </si>
-  <si>
-    <t>wit</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>pro</t>
+    <t>j.c.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-1 </t>
+  </si>
+  <si>
+    <t>trig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wit </t>
+  </si>
+  <si>
+    <t>madh</t>
+  </si>
+  <si>
+    <t>prod</t>
   </si>
 </sst>
 </file>
